--- a/Feature-Analysis/Resize Feature/s_18_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_18_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.5834143518</v>
+        <v>738157.5834143518</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.58405092591</v>
+        <v>738157.58405092591</v>
       </c>
       <c r="C3" s="0">
         <v>55.000003427267075</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.58440972224</v>
+        <v>738157.58440972224</v>
       </c>
       <c r="C4" s="0">
         <v>86.000006273388863</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.58461805561</v>
+        <v>738157.58461805561</v>
       </c>
       <c r="C5" s="0">
         <v>104.00000922381878</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.58509259264</v>
+        <v>738157.58509259264</v>
       </c>
       <c r="C6" s="0">
         <v>145.00000812113285</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.58543981484</v>
+        <v>738157.58543981484</v>
       </c>
       <c r="C7" s="0">
         <v>175.00000633299351</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.58579861117</v>
+        <v>738157.58579861117</v>
       </c>
       <c r="C8" s="0">
         <v>206.0000091791153</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.58612268523</v>
+        <v>738157.58612268523</v>
       </c>
       <c r="C9" s="0">
         <v>234.0000081807375</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.58648148144</v>
+        <v>738157.58648148144</v>
       </c>
       <c r="C10" s="0">
         <v>265.00000096857548</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.58716435183</v>
+        <v>738157.58716435183</v>
       </c>
       <c r="C11" s="0">
         <v>324.00000281631947</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.58751157403</v>
+        <v>738157.58751157403</v>
       </c>
       <c r="C12" s="0">
         <v>354.00000102818012</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.58788194449</v>
+        <v>738157.58788194449</v>
       </c>
       <c r="C13" s="0">
         <v>386.00000850856304</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.58821759257</v>
+        <v>738157.58821759257</v>
       </c>
       <c r="C14" s="0">
         <v>415.00000208616257</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.58848379634</v>
+        <v>738157.58848379634</v>
       </c>
       <c r="C15" s="0">
         <v>438.00000809133053</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.58873842587</v>
+        <v>738157.58873842587</v>
       </c>
       <c r="C16" s="0">
         <v>459.99999940395355</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.58925925929</v>
+        <v>738157.58925925929</v>
       </c>
       <c r="C17" s="0">
         <v>505.00000678002834</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.58960648149</v>
+        <v>738157.58960648149</v>
       </c>
       <c r="C18" s="0">
         <v>535.000004991889</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.58994212968</v>
+        <v>738157.58994212968</v>
       </c>
       <c r="C19" s="0">
         <v>564.00000862777233</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.59030092589</v>
+        <v>738157.59030092589</v>
       </c>
       <c r="C20" s="0">
         <v>595.00000141561031</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.59067129635</v>
+        <v>738157.59067129635</v>
       </c>
       <c r="C21" s="0">
         <v>627.00000889599323</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.59131944447</v>
+        <v>738157.59131944447</v>
       </c>
       <c r="C22" s="0">
         <v>683.00000689923763</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.59165509255</v>
+        <v>738157.59165509255</v>
       </c>
       <c r="C23" s="0">
         <v>712.00000047683716</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.59197916673</v>
+        <v>738157.59197916673</v>
       </c>
       <c r="C24" s="0">
         <v>740.00000953674316</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.59232638893</v>
+        <v>738157.59232638893</v>
       </c>
       <c r="C25" s="0">
         <v>770.00000774860382</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.59267361113</v>
+        <v>738157.59267361113</v>
       </c>
       <c r="C26" s="0">
         <v>800.00000596046448</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.59300925932</v>
+        <v>738157.59300925932</v>
       </c>
       <c r="C27" s="0">
         <v>829.00000959634781</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.59336805553</v>
+        <v>738157.59336805553</v>
       </c>
       <c r="C28" s="0">
         <v>860.00000238418579</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.59373842587</v>
+        <v>738157.59373842587</v>
       </c>
       <c r="C29" s="0">
         <v>891.9999998062849</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.59406250005</v>
+        <v>738157.59406250005</v>
       </c>
       <c r="C30" s="0">
         <v>920.00000886619091</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.59478009259</v>
+        <v>738157.59478009259</v>
       </c>
       <c r="C31" s="0">
         <v>982.00000450015068</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.59509259264</v>
+        <v>738157.59509259264</v>
       </c>
       <c r="C32" s="0">
         <v>1009.0000089257956</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.59545138886</v>
+        <v>738157.59545138886</v>
       </c>
       <c r="C33" s="0">
         <v>1040.0000017136335</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.59581018519</v>
+        <v>738157.59581018519</v>
       </c>
       <c r="C34" s="0">
         <v>1071.0000045597553</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.59616898152</v>
+        <v>738157.59616898152</v>
       </c>
       <c r="C35" s="0">
         <v>1102.0000074058771</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.59650462959</v>
+        <v>738157.59650462959</v>
       </c>
       <c r="C36" s="0">
         <v>1131.0000009834766</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.59684027778</v>
+        <v>738157.59684027778</v>
       </c>
       <c r="C37" s="0">
         <v>1160.00000461936</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.59718749998</v>
+        <v>738157.59718749998</v>
       </c>
       <c r="C38" s="0">
         <v>1190.0000028312206</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.59752314817</v>
+        <v>738157.59752314817</v>
       </c>
       <c r="C39" s="0">
         <v>1219.000006467104</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.59789351851</v>
+        <v>738157.59789351851</v>
       </c>
       <c r="C40" s="0">
         <v>1251.0000038892031</v>
